--- a/regions_data/Ciepłownictwo/pie_chart_data/1_Produkcja i rozdysponowanie ciepła.xlsx
+++ b/regions_data/Ciepłownictwo/pie_chart_data/1_Produkcja i rozdysponowanie ciepła.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
-    <t xml:space="preserve">Tabela 131. Produkcja i rozdysponowanie wytworzonego ciepła według województw w 2015 r.</t>
+    <t xml:space="preserve">Nazwa wycinka</t>
   </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
@@ -407,230 +407,230 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="B1:R4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.28571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>67</v>
       </c>
     </row>
